--- a/MediaVoto/Results_Giornata_9_2020.xlsx
+++ b/MediaVoto/Results_Giornata_9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vittu\Documents\Stupido\Betting\MediaVoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35322F8A-A601-4D51-B2C1-8B00614EA39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E8DDFC-D04A-4E23-AF63-FB72AD6EFFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3588" yWindow="3588" windowWidth="14892" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2635,7 +2635,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2664,7 +2663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>5.5081461733946897</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>5.5081461733946897</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>5.5081461733946897</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>5.4784875547647927</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>5.3975990124950863</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>4.8821590140802336</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>5.3975990124950863</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>5.5387651060491452</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>5.5526057947430969</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>5.289448382120189</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>5.2280864775469924</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>5.4592844736831472</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>5.1285098761462011</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>4.9340436459061463</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>5.1398790132876604</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>4.8609036707288089</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>5.4133753876552619</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>5.4133753876552619</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>5.6533002156847507</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>5.8064492842777122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>5.3100824835375304</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>5.235136020813834</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>5.6265549521884806</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>4.9718065738746189</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>5.2245322438683717</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>5.3999765025424447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>6.1657218455072487</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>6.087816951768537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>5.1000776795018474</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>5.5335654939982097</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>5.4270731660444289</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>5.4270731660444289</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>5.4623388575268894</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>5.3165260051448264</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>5.5742460043522506</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>5.0965432489723499</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>4.9511496858730029</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>5.223920317644569</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>5.352286006937784</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>5.0479311791064374</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>5.3165260051448264</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>4.9909497658494724</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>5.3165260051448264</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>5.3323023803050029</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>5.2299980968082673</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>5.3323023803050029</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>5.3263706565790239</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>5.0473953140201724</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>5.3323023803050029</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>5.3675680717874608</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>5.3323023803050029</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>5.3323023803050029</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>4.7822081534259082</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>5.2971538415302613</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>5.1493909602440899</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>5.3189034951921856</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>5.8033923755410948</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>5.4767136918623658</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>5.0308681196035456</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>1.2678815330996679E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>1.2678815330996679E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>5.8481274199120348</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>1.2678815330996679E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>1.2678815330996679E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>68</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>6.0870137461767886</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>69</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>-9.7868345568606685E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>70</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>-9.7868345568606685E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>71</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>5.9303759481075042</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>72</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>5.3843403742538714</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>73</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>5.0565316385799148</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>74</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>5.5665342235792847</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>75</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>-9.7868345568606685E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>76</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>6.1871073266939343</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>77</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>6.3144843953661516</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>78</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>6.2364866939316483</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>79</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>6.0972562868438152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>80</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>5.577367495634479</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>81</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>-8.2091970408429304E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>82</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>6.1031880105697942</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>83</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>6.1031880105697942</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>84</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>6.6504335282936173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>85</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>6.7153578384059696</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>86</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>6.2448484144343501</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>87</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>-8.2091970408429304E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>88</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>-9.5490855521246587E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>89</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>-9.5490855521246587E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>90</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>5.9869905316497443</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>91</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>5.2208362552222587</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>92</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>6.0848460223519938</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>93</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>6.0779256780050188</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>94</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>5.9821916812009528</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>95</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>-0.10949399165601829</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>96</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>6.1115459911151637</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>97</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>5.5494711640763912</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>98</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>-0.10949399165601829</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>99</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>0.1157846907959152</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>100</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>6.5281374317306708</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>101</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>0.1157846907959152</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>102</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>6.1905175108745363</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>103</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>5.237529896313653E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>104</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>6.0319603343681818</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>106</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>5.8468908452646344</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>107</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>5.8668160606037949</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>108</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>5.237529896313653E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>109</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>6.1905175108745363</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>110</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>5.1596375140448334</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>111</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>5.9056104445897057</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>112</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>5.237529896313653E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>5.8678046812247908</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>114</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>2.1013905056489261E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>115</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>5.51904055481491</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>116</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>2.1013905056489261E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>117</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>6.8358836646218526</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>118</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>6.2062938860347119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>119</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>6.1771295777153146</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>120</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>5.7271081997233164</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>121</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>6.2003621623087328</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>122</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>7.6150199436719754E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>123</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>6.5463562089296508</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>124</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>7.6150199436719754E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>125</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>6.5468505192401478</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>126</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>7.6150199436719754E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>127</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>-6.3881161910979154E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>128</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>-6.3881161910979154E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>129</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>-6.3881161910979154E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>130</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>6.3324157161036387</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>131</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>6.2116860047170919</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>132</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>6.4142794628662001</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>133</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>0.32259379000923261</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>134</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>0.32259379000923261</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>135</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>6.3973266100878527</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>136</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>0.21204662910963101</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>137</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>5.4849260963413977</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>138</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>5.8596426477005776</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>139</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>4.3355666164284452</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>140</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>6.5129593211916363</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>144</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>6.2069082964167004</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>145</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>5.7892809241727434</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>146</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>6.3795314389099156</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>147</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>5.9999908743292751</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>148</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>6.6520391926565194</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>149</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>0.22782300426980659</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>150</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>6.4071712615220493</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>151</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>0.22782300426980659</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>152</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>6.4071712615220493</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>153</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>6.6009895031255326</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>154</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>0.22782300426980659</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>155</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>5.7209065509232433</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>156</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>6.3029751136311374</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>157</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>6.309315770819798</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>158</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>5.3822229884183246</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>159</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>6.7546482390744602</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>160</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>5.8702609655855884</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>161</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>5.2962474369557606</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>163</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>6.9011409624152913</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>164</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>5.5216911968707061</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>165</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>-0.12143389616012711</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>166</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>6.3548545342659883</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>167</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>-0.12143389616012711</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>168</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>5.8587159951762429</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>169</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>5.1917462432047232</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>173</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>5.9839790158247252</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>174</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>5.7701164539720837</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>175</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>5.3869776788762733</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>177</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>5.9414354764665367</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>178</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>-0.23198105705972871</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>179</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>-0.23198105705972871</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>180</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>5.9473672001925157</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>181</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>5.7185138239852664</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>182</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>6.0687709903629861</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>183</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>-0.21620468189955311</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>184</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>5.9690752990786704</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>185</v>
       </c>
@@ -6204,7 +6203,7 @@
         <v>5.9572118516267123</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>186</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>-0.21620468189955311</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>187</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>5.6046876004278419</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>188</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>5.9690752990786704</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>189</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>-0.22960356701237039</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>193</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>6.1645702925475554</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>194</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>6.0242822195008889</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>195</v>
       </c>
@@ -6344,7 +6343,7 @@
         <v>4.9247964171361494</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>196</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>-0.22960356701237039</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>197</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>5.5070773151267778</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>198</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>5.3313436505769696</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>199</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>5.2326702929493552</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>200</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>6.3174554573163038</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>201</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>5.5442954596940259</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>202</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>6.4390198921460646</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>203</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>6.2069082964167004</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>204</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>5.8519124936653393</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>205</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>6.2069082964167004</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>206</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>5.6810877814813852</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>207</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>6.2069082964167004</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>208</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>5.8524068039758363</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>209</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>6.2069082964167004</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>210</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>6.0418445542630907</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>211</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>6.2069082964167004</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>212</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>5.6805934711708863</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>213</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>6.0177941027443103</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>214</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>6.1886188149282644</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>215</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>6.0413502439525919</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>216</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>6.2069082964167004</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>217</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>6.1312552149111026</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>218</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>5.9987135010329977</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>219</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>220</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>221</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>222</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>223</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>5.6104631799285878</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>224</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>225</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>5.6914267432260814</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>226</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>6.4041451554179032</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>227</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>228</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>229</v>
       </c>
@@ -7024,7 +7023,7 @@
         <v>5.7072446731620241</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>230</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>6.2092857864640587</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>231</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>6.2033540627380797</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>232</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>5.7634402142052394</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>233</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>5.8974477836452754</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>234</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>6.2092857864640587</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>235</v>
       </c>
@@ -7144,7 +7143,7 @@
         <v>6.1952826503292888</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>236</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>6.1952826503292888</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>237</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>6.1952826503292888</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>238</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>5.7864586875457276</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>239</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>6.0604909269995959</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>240</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>6.1952826503292888</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>241</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>6.1952826503292888</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>242</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>5.9061640894510106</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>243</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>5.9992640872617686</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>244</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>5.9992640872617686</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>245</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>5.8887169263621653</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>246</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>5.785015088781754</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>247</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>5.785015088781754</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>248</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>5.8887169263621653</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>249</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>5.779577675366272</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>250</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>5.8654843417687479</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>251</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>5.1051764122194241</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>252</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>5.8887169263621653</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>253</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>6.1335848574966372</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>254</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>5.8768534789102072</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>255</v>
       </c>
@@ -7544,7 +7543,7 @@
         <v>5.8887169263621653</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>256</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>5.6991084223792781</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>257</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>6.3228788196424519</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>258</v>
       </c>
@@ -7604,7 +7603,7 @@
         <v>5.6544261367394357</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>259</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>5.7841044409719329</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>260</v>
       </c>
@@ -7644,7 +7643,7 @@
         <v>5.7272425553019088</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>261</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>5.3850988206235044</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>262</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>5.9044933015223409</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>264</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>6.0947489187349566</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>266</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>6.0947489187349566</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>267</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>5.153660488692787</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>268</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>5.4768330402104821</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>269</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>5.8770912802747537</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>270</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>6.4409557383420291</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>271</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>6.0407226610504274</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>272</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>5.5225897878338897</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>273</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>5.8662164534437924</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>277</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>5.823772621525781</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>278</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>6.7007903644806808</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>279</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>6.4559224333462089</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>280</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>6.6502349852601919</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>281</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>6.3453752724466073</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>282</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>6.2490027126758507</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>283</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>6.5171886052515591</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>284</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>6.7057568248013366</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>285</v>
       </c>
@@ -8044,7 +8043,7 @@
         <v>6.3865726876550459</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>286</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>6.8608152708614591</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>287</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>6.6030952716540332</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>288</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>6.2372246420717099</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>289</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>6.3453752724466073</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>290</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>6.0708487226822401</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>291</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>6.2589327409578646</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>292</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>6.1381690976839014</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>293</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>6.3611516476067829</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>294</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>6.111681993593522</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>296</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>6.4351948665573007</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>297</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>6.3368779356630034</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>298</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>6.0900327632865396</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>299</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>6.0221765231986124</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>300</v>
       </c>
@@ -8344,7 +8343,7 @@
         <v>6.8444089691098826</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>301</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>5.9556715134996958</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>303</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>6.8210139370756453</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>304</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>-0.26252484019675132</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>305</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>5.9227551407814714</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>306</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>5.9049599696035342</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>307</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>6.1681173822264403</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>308</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>5.9227551407814714</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>309</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>6.103710739640257</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>310</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>5.812207979881868</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>311</v>
       </c>
@@ -8584,7 +8583,7 @@
         <v>5.9875759947799567</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>313</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>5.6290255099354569</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>314</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>5.812207979881868</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>315</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>5.812207979881868</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>316</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>6.0516384976008579</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>318</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>5.5951571536849647</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>319</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>5.812207979881868</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>320</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>5.2918248783620347</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>321</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>5.812207979881868</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>322</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>5.416849485365284</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>323</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>5.9815082063585594</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>324</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>5.3076012535222103</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>325</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>5.5648269424191366</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>326</v>
       </c>
@@ -8864,7 +8863,7 @@
         <v>5.8220526313160654</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>327</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>5.8279843550420436</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>328</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>5.8279843550420436</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>329</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>5.5121918697392749</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>330</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>5.8279843550420436</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>331</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>6.170945956645812</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>332</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>6.2323078612190086</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>333</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>5.7085841151126324</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>334</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>5.8145854699292263</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>335</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>5.8145854699292263</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>336</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>5.785915471920327</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>337</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>5.9536118748004734</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>338</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>5.9550948057319681</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>339</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>5.8005823337944564</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>340</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>5.263886992028179</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>341</v>
       </c>
@@ -9164,7 +9163,7 @@
         <v>0.27673614179623129</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>342</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>6.8796006304870572</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>343</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>5.4261930228397697</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>344</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>0.1661889808966279</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>345</v>
       </c>
@@ -9244,7 +9243,7 @@
         <v>6.7069074111245994</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>346</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>0.1661889808966279</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>347</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>6.3514689618748532</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>348</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>6.3396055144228951</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>349</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>6.7078960317455971</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>350</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>0.1661889808966279</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>351</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>6.7074017214351001</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>355</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>0.1661889808966279</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>356</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>0.1661889808966279</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>357</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>5.820211033524056</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>358</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>6.4664467180088456</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>359</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>0.18196535605680531</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>360</v>
       </c>
@@ -9484,7 +9483,7 @@
         <v>7.107286543853923</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>361</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>5.8354930983737354</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>362</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>6.1845571773991148</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>363</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>6.5814135221892434</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>364</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>6.2388950047872838</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>365</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>0.16856647094398799</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>366</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>0.16856647094398799</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>367</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>0.16856647094398799</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>368</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>6.753840692891635</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>369</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>6.5809192118787454</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>370</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>6.8500083482276306</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>371</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>7.1309342121373218</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>372</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>7.7720809569311227</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>373</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>5.8194602142676066</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>374</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>6.4015218843163666</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>378</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>5.1857002760561572</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>379</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>5.4305682071906292</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>380</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>5.3602064836627923</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>384</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>-0.98771625747010638</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>385</v>
       </c>
@@ -9924,7 +9923,7 @@
         <v>5.1916319997821363</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>386</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>5.1857002760561572</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>387</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>5.4236478628436524</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>388</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>5.1797685523301782</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>389</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>5.1916319997821363</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>390</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>5.2074083749423137</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>391</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>4.8578499856064328</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>392</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>5.3732899840212847</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>393</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>5.3727956737107858</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>394</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>4.9903914806328258</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>395</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>5.5939883737534517</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>396</v>
       </c>
@@ -10144,7 +10143,7 @@
         <v>5.1940094898294946</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>397</v>
       </c>
@@ -10164,7 +10163,7 @@
         <v>5.1940094898294946</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>398</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>5.2847397317500091</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>399</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>5.6193153522965806</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>400</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>5.1940094898294946</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>404</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>-0.98533876742274806</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>405</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>5.6891827655139187</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>406</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>5.1940094898294946</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>407</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>5.1940094898294946</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>408</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>5.1940094898294946</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>409</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>5.1800063536947247</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>410</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>5.4779351474895916</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>411</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>5.1800063536947247</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>412</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>5.8170107869393393</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>413</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>5.2965085955359816</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>414</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>0.1930200925664014</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>415</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>0.1930200925664014</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>416</v>
       </c>
@@ -10484,7 +10483,7 @@
         <v>6.2832228344918741</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>417</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>5.9451425352126579</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>421</v>
       </c>
@@ -10524,7 +10523,7 @@
         <v>6.2677529126450224</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>422</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>6.2618211889190416</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>423</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>6.3225180294861056</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>424</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>6.0432874317906444</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>425</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>5.7414380873992066</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>426</v>
       </c>
@@ -10624,7 +10623,7 @@
         <v>6.2366113630836297</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>427</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>8.2472931666799809E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>428</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>5.7468755008146877</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>429</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>6.1626461169442903</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>430</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>6.2835292878051971</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>431</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>6.087494749785832</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>432</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>5.9608164581554517</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>433</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>6.3773523429140626</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>435</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>9.8249306826975413E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>436</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>9.8249306826975413E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>437</v>
       </c>
@@ -10844,7 +10843,7 @@
         <v>8.4850421714158131E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>438</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>6.0932032130868121</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>439</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>5.8792207009702802</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>443</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>5.2392504058626761</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>444</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>5.2392504058626761</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>445</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>7.0847285579388242E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>446</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>6.109472095775959</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>447</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>5.7293181310012971</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>448</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>6.150698872240242</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>449</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>6.5727321727473287</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>453</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>-2.8649385012001542E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>454</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>-2.8649385012001542E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>455</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>-0.1391965459116031</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>456</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>-0.1391965459116031</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>457</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>6.2095264653429387</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>459</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>6.5615234334814714</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>460</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>6.0399633608412868</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>462</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>6.2087261952212947</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>463</v>
       </c>
@@ -11244,7 +11243,7 @@
         <v>5.8161805407967604</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>464</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>6.0337256773041634</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>465</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>-0.1391965459116031</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>466</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>6.5943175734114394</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>467</v>
       </c>
@@ -11324,7 +11323,7 @@
         <v>-0.1391965459116031</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>468</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>6.1471526387318276</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>469</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>5.2886998126045173</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>470</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>6.1774925213305787</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>471</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>-0.1234201707514275</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>472</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>6.5456639487697581</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>473</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>6.8290880841230939</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>474</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>-0.13681905586424481</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>475</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>-0.13681905586424481</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>476</v>
       </c>
@@ -11504,7 +11503,7 @@
         <v>6.6591478220186611</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>477</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>-0.13681905586424481</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>478</v>
       </c>
@@ -11544,7 +11543,7 @@
         <v>6.2019847764304918</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>479</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>-0.13681905586424481</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>480</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>-0.13681905586424481</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>481</v>
       </c>
@@ -11604,7 +11603,7 @@
         <v>-0.13681905586424481</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>482</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>6.7240721321310142</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>483</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>-0.13681905586424481</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>484</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>6.4211056515651794</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>485</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>-0.1508221919990165</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>486</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>6.0409163563075507</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>487</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>-0.24307069533399159</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>488</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>-0.24307069533399159</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>489</v>
       </c>
@@ -11764,7 +11763,7 @@
         <v>-0.24307069533399159</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>490</v>
       </c>
@@ -11784,7 +11783,7 @@
         <v>-0.24307069533399159</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>491</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>5.6542406248285628</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>492</v>
       </c>
@@ -11824,7 +11823,7 @@
         <v>5.6082191963986654</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>493</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>5.8316621247446294</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>494</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>-0.35361785623359321</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>495</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>-0.35361785623359321</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>496</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>3.7699021310852219</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>497</v>
       </c>
@@ -11924,7 +11923,7 @@
         <v>5.4353150096070486</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>498</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>5.9477891461589119</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>499</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>-0.35361785623359321</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>500</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>5.841506776178826</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>501</v>
       </c>
@@ -12004,7 +12003,7 @@
         <v>6.07994867327682</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>502</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>-0.3378414810734176</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>506</v>
       </c>
@@ -12044,7 +12043,7 @@
         <v>5.3319985014899531</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>507</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>5.880726950145271</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>508</v>
       </c>
@@ -12084,7 +12083,7 @@
         <v>6.0421429099119051</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>509</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>5.7007833291231558</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>510</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>6.1369640184212022</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>514</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>6.616919985738174</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>515</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>-0.35124036618623489</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>516</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>-0.35124036618623489</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>517</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>6.5559585098312647</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>519</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>5.8263145784049177</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>524</v>
       </c>
@@ -12284,7 +12283,7 @@
         <v>5.8200364786572178</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>525</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>-0.36524350232100478</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>526</v>
       </c>
@@ -12324,7 +12323,7 @@
         <v>5.7259478602254648</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>527</v>
       </c>
@@ -12344,7 +12343,7 @@
         <v>6.8325477627944027</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>528</v>
       </c>
@@ -12364,7 +12363,7 @@
         <v>0.22838795338557191</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>529</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>0.22838795338557191</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>530</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>0.1178407924859686</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>531</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>6.2734621548342977</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>532</v>
       </c>
@@ -12444,7 +12443,7 @@
         <v>6.2062539033829394</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>533</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>6.2095264653429387</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>534</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>5.976061603237345</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>535</v>
       </c>
@@ -12524,7 +12523,7 @@
         <v>6.0552454256909654</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>537</v>
       </c>
@@ -12544,7 +12543,7 @@
         <v>0.1178407924859686</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>538</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>6.490512981031201</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>539</v>
       </c>
@@ -12584,7 +12583,7 @@
         <v>0.1178407924859686</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>540</v>
       </c>
@@ -12604,7 +12603,7 @@
         <v>0.1178407924859686</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>541</v>
       </c>
@@ -12644,7 +12643,7 @@
         <v>6.2140277466805918</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>543</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>0.1178407924859686</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>544</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>6.302584908377928</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>545</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>0.1336171676461442</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>546</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>0.1336171676461442</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>547</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>6.7377769770549776</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>548</v>
       </c>
@@ -12784,7 +12783,7 @@
         <v>5.8350807421423481</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>550</v>
       </c>
@@ -12804,7 +12803,7 @@
         <v>0.1336171676461442</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>551</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>0.1336171676461442</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>552</v>
       </c>
@@ -12864,7 +12863,7 @@
         <v>5.3483817156048561</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>554</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>0.12021828253332691</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>555</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>6.8011658495064724</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>556</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>6.820938261926405</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>557</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>0.12021828253332691</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>558</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>0.12021828253332691</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>559</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>6.0825157135886707</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>560</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>0.12021828253332691</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>561</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>0.12021828253332691</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>562</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>0.106215146398557</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>563</v>
       </c>
@@ -13064,7 +13063,7 @@
         <v>6.5249939213697923</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>564</v>
       </c>
@@ -13084,7 +13083,7 @@
         <v>6.4803702658752824</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>565</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>0.106215146398557</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>566</v>
       </c>
@@ -13124,7 +13123,7 @@
         <v>6.1448399565951322</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>570</v>
       </c>
@@ -13144,7 +13143,7 @@
         <v>0.106215146398557</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>571</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>6.369401992800948</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>572</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>6.1612694150334786</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>574</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>6.1062445801780401</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>575</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>6.2351279369974284</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>576</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>6.2588548319013446</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>577</v>
       </c>
@@ -13284,7 +13283,7 @@
         <v>6.2291962132714493</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>578</v>
       </c>
@@ -13304,7 +13303,7 @@
         <v>6.0343893510469666</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>579</v>
       </c>
@@ -13324,7 +13323,7 @@
         <v>5.8673317299852226</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>580</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>6.1325342476249558</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>581</v>
       </c>
@@ -13364,7 +13363,7 @@
         <v>6.2529231081753656</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>582</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>6.0011348326939187</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>583</v>
       </c>
@@ -13404,7 +13403,7 @@
         <v>5.7434148334864927</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>584</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>6.1507042015264473</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>585</v>
       </c>
@@ -13444,7 +13443,7 @@
         <v>6.0011348326939187</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>586</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>5.7271025932400503</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>587</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>6.2588548319013446</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>588</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>5.920129714620658</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>589</v>
       </c>
@@ -13524,7 +13523,7 @@
         <v>6.2686994833355412</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>590</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>6.3912525387862997</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>591</v>
       </c>
@@ -13564,7 +13563,7 @@
         <v>6.2746312070615202</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>592</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>5.8776706917299189</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>593</v>
       </c>
@@ -13604,7 +13603,7 @@
         <v>6.0114737944386141</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>594</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>6.0973804608410882</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>595</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>6.2746312070615202</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>596</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>6.1031414308714327</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>597</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>6.3981728831332756</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>598</v>
       </c>
@@ -13704,7 +13703,7 @@
         <v>6.2563417255730842</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>599</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>5.8469709457496606</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>600</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>6.2612323219487029</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>601</v>
       </c>
@@ -13764,7 +13763,7 @@
         <v>6.2493688744967448</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>602</v>
       </c>
@@ -13784,7 +13783,7 @@
         <v>6.756243150192307</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>603</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>6.2472291858139331</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>604</v>
       </c>
@@ -13824,7 +13823,7 @@
         <v>5.5500896483841649</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>605</v>
       </c>
@@ -13844,7 +13843,7 @@
         <v>6.1734786758992053</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>606</v>
       </c>
@@ -13864,7 +13863,7 @@
         <v>6.0233633329440659</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>607</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>6.1734786758992053</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>608</v>
       </c>
@@ -13904,7 +13903,7 @@
         <v>6.0629315149996019</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>609</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>5.8911181821946519</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>610</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>6.1172876983780036</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>611</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>6.0629315149996019</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>615</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>-0.1164167422526434</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>616</v>
       </c>
@@ -14004,7 +14003,7 @@
         <v>6.0629315149996019</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>617</v>
       </c>
@@ -14024,7 +14023,7 @@
         <v>6.0629315149996019</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>618</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>5.2897715173773241</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>619</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>5.8683799079117316</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>620</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>5.370240770364318</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>621</v>
       </c>
@@ -14104,7 +14103,7 @@
         <v>5.4580393011609702</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>622</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>5.5262361732333254</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>623</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>6.2513123431876059</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>624</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>5.9528036433827127</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>625</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>6.0787078901597793</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>626</v>
       </c>
@@ -14204,7 +14203,7 @@
         <v>6.0787078901597793</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>627</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>5.6059482378848591</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>628</v>
       </c>
@@ -14244,7 +14243,7 @@
         <v>6.200766635300039</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>629</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>5.7982496166694331</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>630</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>5.9905509954540053</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>631</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>6.0787078901597793</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>632</v>
       </c>
@@ -14324,7 +14323,7 @@
         <v>6.0653090050469602</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>633</v>
       </c>
@@ -14344,7 +14343,7 @@
         <v>5.7216823394370602</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>634</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>6.0653090050469602</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>638</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>-0.1140392522052851</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>639</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>5.4651722840998236</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>640</v>
       </c>
@@ -14424,7 +14423,7 @@
         <v>6.833601631890482</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>641</v>
       </c>
@@ -14444,7 +14443,7 @@
         <v>6.0513058689121904</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>642</v>
       </c>
@@ -14464,7 +14463,7 @@
         <v>6.0513058689121904</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>643</v>
       </c>
@@ -14484,7 +14483,7 @@
         <v>5.7935858697047644</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>644</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>6.0513058689121904</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>645</v>
       </c>
@@ -14524,7 +14523,7 @@
         <v>5.5358658704973376</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>646</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>6.1813307605205923</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>647</v>
       </c>
@@ -14564,7 +14563,7 @@
         <v>5.7582234625446942</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>648</v>
       </c>
@@ -14584,7 +14583,7 @@
         <v>6.1127249549855556</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>649</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>6.1127249549855556</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>650</v>
       </c>
@@ -14624,7 +14623,7 @@
         <v>5.8076261869980828</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>651</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>5.8614543470302829</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>652</v>
       </c>
@@ -14664,7 +14663,7 @@
         <v>6.339378425659377</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>653</v>
       </c>
@@ -14684,7 +14683,7 @@
         <v>6.0021777940859531</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>654</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>6.0021777940859531</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>655</v>
       </c>
@@ -14724,7 +14723,7 @@
         <v>5.7162821071801266</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>656</v>
       </c>
@@ -14744,7 +14743,7 @@
         <v>6.0359605546369179</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>657</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>6.0021777940859531</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>658</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>5.990314346633995</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>659</v>
       </c>
@@ -14804,7 +14803,7 @@
         <v>6.0021777940859531</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>660</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>5.867386070756262</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>661</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>5.818995324139542</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>662</v>
       </c>
@@ -14864,7 +14863,7 @@
         <v>5.8076261869980828</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>663</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>6.0021777940859531</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>664</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>6.2756741684535564</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>665</v>
       </c>
@@ -14924,7 +14923,7 @@
         <v>6.0179541692461296</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>666</v>
       </c>
@@ -14944,7 +14943,7 @@
         <v>6.2756741684535564</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>667</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>6.0120224455201514</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>668</v>
       </c>
@@ -14984,7 +14983,7 @@
         <v>5.603692793047089</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>669</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>6.7441021806417094</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>670</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>6.0045552841333132</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>671</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>6.0045552841333132</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>672</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>5.9905521479985424</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>673</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>5.3802225207444296</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>674</v>
       </c>
@@ -15104,7 +15103,7 @@
         <v>5.9905521479985424</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>675</v>
       </c>
@@ -15124,7 +15123,7 @@
         <v>5.9905521479985424</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>676</v>
       </c>
@@ -15144,7 +15143,7 @@
         <v>5.9603992190581474</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>677</v>
       </c>
@@ -15164,7 +15163,7 @@
         <v>5.9905521479985424</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>678</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>5.9905521479985424</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>679</v>
       </c>
@@ -15204,7 +15203,7 @@
         <v>5.4701690464787083</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>680</v>
       </c>
@@ -15224,7 +15223,7 @@
         <v>2.3822860157479479E-2</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>681</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>6.8837254275317443</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>682</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>2.3822860157479479E-2</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>683</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>-8.6724300742122118E-2</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>684</v>
       </c>
@@ -15304,7 +15303,7 @@
         <v>-8.6724300742122118E-2</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>685</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>6.0931182668206194</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>686</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>6.2580112552785936</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>687</v>
       </c>
@@ -15364,7 +15363,7 @@
         <v>6.1484630708200187</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>688</v>
       </c>
@@ -15384,7 +15383,7 @@
         <v>5.8240291304717333</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>689</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>6.3900245081070741</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>690</v>
       </c>
@@ -15424,7 +15423,7 @@
         <v>6.0926239565101206</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>691</v>
       </c>
@@ -15444,7 +15443,7 @@
         <v>6.0688970616062026</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>692</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>6.3379861979550904</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>693</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>6.0985556802361014</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>694</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>-8.6724300742122118E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>695</v>
       </c>
@@ -15524,7 +15523,7 @@
         <v>-7.0947925581946514E-2</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>696</v>
       </c>
@@ -15544,7 +15543,7 @@
         <v>6.3105193963348709</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>697</v>
       </c>
@@ -15564,7 +15563,7 @@
         <v>-7.0947925581946514E-2</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>698</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>6.1143320553962761</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>699</v>
       </c>
@@ -15604,7 +15603,7 @@
         <v>-7.0947925581946514E-2</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>700</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>5.9820797473939082</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>701</v>
       </c>
@@ -15644,7 +15643,7 @@
         <v>6.1143320553962761</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>702</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>7.6075203130813778</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>704</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>6.2818993438139872</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>705</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>6.5170347470645646</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>706</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>5.5714900357338371</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>707</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>6.0696291732812488</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>708</v>
       </c>
@@ -15784,7 +15783,7 @@
         <v>-9.8349946829535462E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>709</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>5.5714900357338371</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>710</v>
       </c>
@@ -15824,7 +15823,7 @@
         <v>8.2472931666799809E-2</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>711</v>
       </c>
@@ -15844,7 +15843,7 @@
         <v>5.8353982676131926</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>712</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>5.1466526385118776</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>713</v>
       </c>
@@ -15884,7 +15883,7 @@
         <v>-0.1673258117320913</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>714</v>
       </c>
@@ -15904,7 +15903,7 @@
         <v>6.2455212395131623</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>715</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>8.9351226083297597E-2</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>716</v>
       </c>
@@ -15944,7 +15943,7 @@
         <v>5.9807740484583567</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>717</v>
       </c>
@@ -15964,7 +15963,7 @@
         <v>6.8633547266110844</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>718</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>6.0599477113741953</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>719</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v>6.0653987201021868</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>720</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>5.5410964461007586</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>721</v>
       </c>
@@ -16044,7 +16043,7 @@
         <v>-0.75820681493379372</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>722</v>
       </c>
@@ -16064,7 +16063,7 @@
         <v>6.1494512623146234</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>723</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>5.1697584097757536</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>724</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>-0.23198105705972871</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>725</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>5.1721358998231119</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>726</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>6.3174554573163038</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>727</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>6.3174554573163038</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>728</v>
       </c>
@@ -16184,7 +16183,7 @@
         <v>6.1952826503292888</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>729</v>
       </c>
@@ -16204,7 +16203,7 @@
         <v>6.8604829262532254</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>730</v>
       </c>
@@ -16224,7 +16223,7 @@
         <v>5.610743260498281</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>731</v>
       </c>
@@ -16244,7 +16243,7 @@
         <v>0.1930200925664014</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>732</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>8.2472931666799809E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>733</v>
       </c>
@@ -16284,7 +16283,7 @@
         <v>8.2472931666799809E-2</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>734</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>5.7458868801936918</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>735</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>6.008014117419834</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>736</v>
       </c>
@@ -16344,7 +16343,7 @@
         <v>6.1567143932183086</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>737</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>9.8249306826975413E-2</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>738</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>5.2392504058626761</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>739</v>
       </c>
@@ -16404,7 +16403,7 @@
         <v>8.4850421714158131E-2</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>740</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>5.3143662515059509</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>742</v>
       </c>
@@ -16484,7 +16483,7 @@
         <v>6.5439660636680808</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>744</v>
       </c>
@@ -16504,7 +16503,7 @@
         <v>-0.3378414810734176</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>745</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>6.6029513218378684</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>746</v>
       </c>
@@ -16544,7 +16543,7 @@
         <v>6.860126475690886</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>747</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>6.8395587374553477</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>748</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>6.1734786758992053</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>749</v>
       </c>
@@ -16604,7 +16603,7 @@
         <v>6.0593772813209812</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>750</v>
       </c>
@@ -16624,7 +16623,7 @@
         <v>-7.2555025992665279E-2</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>751</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>5.7488650328972426</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>752</v>
       </c>
@@ -16664,7 +16663,7 @@
         <v>6.2881151470363141</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>753</v>
       </c>
@@ -16684,7 +16683,7 @@
         <v>5.6441220679664701</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>754</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>6.1657968286172444</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>755</v>
       </c>
@@ -16724,7 +16723,7 @@
         <v>-0.67713380758353381</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>756</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>5.8462059595024298</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>757</v>
       </c>
@@ -16764,7 +16763,7 @@
         <v>6.222684671576876</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>758</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>-2.8649385012001542E-2</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>759</v>
       </c>
@@ -16805,36 +16804,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C708" xr:uid="{D60C3C30-EA40-452F-92BE-E63C5400F428}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="BOGA Jeremie"/>
-        <filter val="BONAZZOLI Federico"/>
-        <filter val="DI LORENZO Giovanni"/>
-        <filter val="GODIN Diego"/>
-        <filter val="IBANEZ -"/>
-        <filter val="KUMBULLA Marash"/>
-        <filter val="KURTIC Jasmin"/>
-        <filter val="LAPADULA Gianluca"/>
-        <filter val="LAZZARI Manuel"/>
-        <filter val="MAYORAL Borja"/>
-        <filter val="MERET Alex"/>
-        <filter val="MILENKOVIC Nikola"/>
-        <filter val="MULDUR Mert"/>
-        <filter val="OBIANG Pedro"/>
-        <filter val="OSPINA David"/>
-        <filter val="PATRIC Patricio Gabarron Gil"/>
-        <filter val="RAMIREZ Gastón"/>
-        <filter val="RAMSEY Aaron"/>
-        <filter val="RONALDO Cristiano"/>
-        <filter val="SILVA Adrien"/>
-        <filter val="SIMY -"/>
-        <filter val="TAMEZE Adrien"/>
-        <filter val="TOLJAN Jeremy"/>
-        <filter val="ZOET Jeroen"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C708" xr:uid="{D60C3C30-EA40-452F-92BE-E63C5400F428}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:F692">
     <sortCondition descending="1" ref="D1:D708"/>
   </sortState>
